--- a/JAVA20-rinhuynh-DatabaseDesign.xlsx
+++ b/JAVA20-rinhuynh-DatabaseDesign.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED55F1B-8545-5F44-990B-48789A87879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67607DD1-C6BE-604E-BA19-B3C5DFCAE712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1960" windowWidth="28800" windowHeight="15440" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="12680" windowWidth="28800" windowHeight="17500" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -565,54 +565,126 @@
     </r>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
     <t>B2. Mô hình logic 
 ERD</t>
   </si>
   <si>
-    <t>Object 1</t>
-  </si>
-  <si>
-    <t>Att 1</t>
-  </si>
-  <si>
-    <t>Att 2</t>
-  </si>
-  <si>
-    <t>Att 3</t>
-  </si>
-  <si>
-    <t>Object 2</t>
-  </si>
-  <si>
-    <t>Object 3</t>
-  </si>
-  <si>
-    <t>Object 4</t>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>ITEM_GROUP</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PHONE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ADDRESS</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>ITEM_COLOR</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>DELIVERY_FEE</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>SIZE(s)</t>
+  </si>
+  <si>
+    <t>COLOR(s)</t>
+  </si>
+  <si>
+    <t>ITEM_ID(s)</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>DELIVERY_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>ITEM(s)</t>
+  </si>
+  <si>
+    <t>TOTAL_OF_MONEY</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL</t>
+  </si>
+  <si>
+    <t>MOUNT</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>DEPARTMENT ?</t>
+  </si>
+  <si>
+    <t>TITLE ?</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +755,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -705,13 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,14 +844,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +888,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1243,7 @@
   <dimension ref="B1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1251,8 @@
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
     <col min="8" max="11" width="22.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.5" style="1" customWidth="1"/>
@@ -1170,16 +1262,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1188,9 +1280,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,103 +1293,171 @@
     <row r="5" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1306,7 +1466,9 @@
     <row r="12" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1319,7 +1481,9 @@
     <row r="13" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1332,7 +1496,9 @@
     <row r="14" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1345,7 +1511,9 @@
     <row r="15" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1412,7 +1580,7 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1421,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="29" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1501,16 +1669,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1519,9 +1687,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1581,9 +1749,9 @@
       <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
@@ -1626,7 +1794,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -1653,8 +1821,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -1695,7 +1863,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
@@ -1710,8 +1878,8 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -1726,8 +1894,8 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="2:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -1741,8 +1909,8 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -1757,8 +1925,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
@@ -1790,88 +1958,88 @@
     </row>
     <row r="20" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1939,18 +2107,18 @@
   <sheetData>
     <row r="1" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -1961,9 +2129,9 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -1992,52 +2160,52 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="19" t="s">
         <v>48</v>
       </c>
       <c r="S5" s="1">
@@ -2046,26 +2214,26 @@
       <c r="T5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2109,7 +2277,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -2146,8 +2314,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -2201,7 +2369,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
@@ -2220,8 +2388,8 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -2240,8 +2408,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="2:23" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -2259,8 +2427,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="12"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -2279,8 +2447,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="12"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
@@ -2320,96 +2488,96 @@
     </row>
     <row r="20" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="17" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="18" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="19" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="8"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
